--- a/schemes/pinouts.xlsx
+++ b/schemes/pinouts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f92a95b8a3ebd29/Dokumentumok/wro2022-fe-template/schemes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csabi\Documents\GitHub\WRO2025-FE-StormsNGR\schemes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="377" documentId="8_{4D398EB6-84DA-43A4-9D8F-54E6CE081F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B780DF9-F16E-453A-AFE5-D0CDC0968B50}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4446A5C8-ED12-4970-AF6D-6AA9A57BFA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BAD00418-F06A-4B00-923B-8C735A73B583}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="1" xr2:uid="{BAD00418-F06A-4B00-923B-8C735A73B583}"/>
   </bookViews>
   <sheets>
     <sheet name="PI" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>L&amp;K GND</t>
   </si>
@@ -72,9 +72,6 @@
     <t>LIDAR GND</t>
   </si>
   <si>
-    <t>LIDAR NC</t>
-  </si>
-  <si>
     <t>LIDAR UART TXD</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t>Motor_DIR2</t>
-  </si>
-  <si>
-    <t>Motor_PWM2</t>
   </si>
   <si>
     <t>IMU_RXD</t>
@@ -203,6 +197,9 @@
   </si>
   <si>
     <t>PSU 5V</t>
+  </si>
+  <si>
+    <t>LiDAR PWM</t>
   </si>
 </sst>
 </file>
@@ -834,80 +831,76 @@
   <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="3.83203125" customWidth="1"/>
+    <col min="4" max="4" width="0.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.27734375" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11"/>
       <c r="H3" s="5"/>
       <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H4" s="6"/>
       <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="H5" s="2"/>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H6" s="4"/>
       <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="14" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="16" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="18" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="7" t="s">
         <v>3</v>
       </c>
@@ -917,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="s">
         <v>0</v>
       </c>
@@ -937,156 +930,151 @@
   </sheetPr>
   <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="5" width="4.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.71875" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.71875" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
+    <col min="15" max="15" width="3.71875" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" customWidth="1"/>
+    <col min="17" max="17" width="4.27734375" customWidth="1"/>
+    <col min="18" max="18" width="3.71875" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" customWidth="1"/>
+    <col min="20" max="20" width="4.27734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3"/>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3" s="5"/>
       <c r="K3" s="6"/>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F6" t="s">
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
       <c r="G13" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="14"/>
       <c r="K14" s="1"/>
       <c r="L14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="21" spans="3:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1105,173 +1093,171 @@
   <dimension ref="A5:S24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.71875" customWidth="1"/>
     <col min="9" max="10" width="4" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" customWidth="1"/>
+    <col min="18" max="18" width="4.44140625" customWidth="1"/>
+    <col min="19" max="19" width="13.71875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5"/>
       <c r="R6" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
       </c>
       <c r="B7" s="10"/>
       <c r="R7" s="5"/>
       <c r="S7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="R10" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="R11" s="2"/>
       <c r="S11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2"/>
       <c r="R13" s="5"/>
       <c r="S13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3"/>
       <c r="R15" s="5"/>
       <c r="S15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
       <c r="B20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I23" s="3"/>
       <c r="J23" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="151.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I24" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1287,86 +1273,86 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J23" s="5"/>
       <c r="L23" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/schemes/pinouts.xlsx
+++ b/schemes/pinouts.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csabi\Documents\GitHub\WRO2025-FE-StormsNGR\schemes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f92a95b8a3ebd29/Robot/WRO2025/FE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4446A5C8-ED12-4970-AF6D-6AA9A57BFA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{3DA6B8D2-90B8-47A3-BA56-4548BF05ECEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15C42E8A-F953-4915-9E1A-D90A5DFA665C}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="1" xr2:uid="{BAD00418-F06A-4B00-923B-8C735A73B583}"/>
+    <workbookView xWindow="8" yWindow="8" windowWidth="21585" windowHeight="12135" xr2:uid="{BAD00418-F06A-4B00-923B-8C735A73B583}"/>
   </bookViews>
   <sheets>
     <sheet name="PI" sheetId="1" r:id="rId1"/>
     <sheet name="ESP32" sheetId="2" r:id="rId2"/>
-    <sheet name="ESP Board" sheetId="3" r:id="rId3"/>
+    <sheet name="ESP Board new" sheetId="5" r:id="rId3"/>
     <sheet name="M ctrl" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'ESP Board'!$A$1:$S$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PI!$B$1:$I$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PI!$A$1:$I$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>L&amp;K GND</t>
   </si>
@@ -84,12 +83,6 @@
     <t>Servo PWM</t>
   </si>
   <si>
-    <t>Motor_DIR1</t>
-  </si>
-  <si>
-    <t>Motor_DIR2</t>
-  </si>
-  <si>
     <t>IMU_RXD</t>
   </si>
   <si>
@@ -99,30 +92,12 @@
     <t>W</t>
   </si>
   <si>
-    <t>ENC_1 GND</t>
-  </si>
-  <si>
-    <t>ENC_1 VCC</t>
-  </si>
-  <si>
     <t>Servo VCC</t>
   </si>
   <si>
     <t>Servo GND</t>
   </si>
   <si>
-    <t>IMU GND</t>
-  </si>
-  <si>
-    <t>IMU VCC</t>
-  </si>
-  <si>
-    <t>IMU PS0</t>
-  </si>
-  <si>
-    <t>IMU TXD (SDA)</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -138,36 +113,12 @@
     <t>M-</t>
   </si>
   <si>
-    <t>PI TTL RXD</t>
-  </si>
-  <si>
-    <t>PI TTL TXD</t>
-  </si>
-  <si>
-    <t>ENC_0 VCC</t>
-  </si>
-  <si>
-    <t>ENC_0 A</t>
-  </si>
-  <si>
-    <t>ENC_0 B</t>
-  </si>
-  <si>
-    <t>ENC_0 GND</t>
-  </si>
-  <si>
     <t>UART (PI) RXD</t>
   </si>
   <si>
     <t>UART (PI) TXD</t>
   </si>
   <si>
-    <t>PDU 5V</t>
-  </si>
-  <si>
-    <t>PDU GND</t>
-  </si>
-  <si>
     <t>(Servo VCC)</t>
   </si>
   <si>
@@ -175,9 +126,6 @@
   </si>
   <si>
     <t>(IMU GND)</t>
-  </si>
-  <si>
-    <t>(ENC1 VCC)</t>
   </si>
   <si>
     <t>(IMU VCC)</t>
@@ -193,20 +141,68 @@
     <t>PSU GND</t>
   </si>
   <si>
-    <t>(ENC1 GND)</t>
-  </si>
-  <si>
     <t>PSU 5V</t>
   </si>
   <si>
     <t>LiDAR PWM</t>
+  </si>
+  <si>
+    <t>Motor_PWM2</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>USB UART TX</t>
+  </si>
+  <si>
+    <t>USB UART RX</t>
+  </si>
+  <si>
+    <t>ESP UART TX</t>
+  </si>
+  <si>
+    <t>ESP UART RX</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>PI TX</t>
+  </si>
+  <si>
+    <t>PI RX</t>
+  </si>
+  <si>
+    <t>Motor PWM1</t>
+  </si>
+  <si>
+    <t>Motor PWM2</t>
+  </si>
+  <si>
+    <t>ENC1 GND</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>! ENC1 VCC</t>
+  </si>
+  <si>
+    <t>Jumper A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -214,8 +210,16 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,18 +270,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -285,11 +283,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -302,10 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -314,7 +386,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -368,8 +466,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2235200" y="0"/>
-          <a:ext cx="2038095" cy="6304762"/>
+          <a:off x="2228850" y="0"/>
+          <a:ext cx="2031745" cy="6304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -434,23 +532,89 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>204932</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>263044</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12702</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>148442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>982924</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57726</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="2" name="Kép 1" descr="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AA891B-E4D6-A368-B54E-B791F7528476}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61E833B-7420-53F0-2990-EBB0102C3800}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="2947598" y="852096"/>
+          <a:ext cx="3801257" cy="4768850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>184501</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>82647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Kép 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD06769-85B6-6052-963E-803FD8591E01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -466,57 +630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1571144" y="263044"/>
-          <a:ext cx="8763598" cy="6144682"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>109191</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>73454</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>81311</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>41704</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941D118F-1913-666B-F9B7-95B82ECDE398}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="1104901" y="614444"/>
-          <a:ext cx="3098800" cy="3121720"/>
+          <a:off x="1047751" y="692150"/>
+          <a:ext cx="2114900" cy="1784447"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -828,96 +943,117 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" customWidth="1"/>
-    <col min="4" max="4" width="0.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.27734375" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="3.796875" customWidth="1"/>
+    <col min="4" max="4" width="0.796875" customWidth="1"/>
+    <col min="7" max="7" width="12.265625" customWidth="1"/>
+    <col min="8" max="8" width="3.796875" customWidth="1"/>
+    <col min="9" max="9" width="15.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
-        <v>47</v>
+    <row r="1" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="11"/>
+    <row r="3" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="9"/>
       <c r="H3" s="5"/>
       <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H4" s="6"/>
       <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
-        <v>47</v>
+    <row r="5" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H6" s="4"/>
       <c r="I6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="14" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="16" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="18" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="3"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="1"/>
     </row>
+    <row r="22" spans="2:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="2:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -928,431 +1064,375 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:S21"/>
+  <dimension ref="A2:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="B15" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="5" width="4.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" customWidth="1"/>
+    <col min="2" max="2" width="4.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" customWidth="1"/>
+    <col min="4" max="5" width="4.19921875" customWidth="1"/>
+    <col min="6" max="6" width="14.796875" customWidth="1"/>
+    <col min="7" max="7" width="4.19921875" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="11" max="11" width="3.71875" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.71875" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" customWidth="1"/>
-    <col min="15" max="15" width="3.71875" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" customWidth="1"/>
-    <col min="17" max="17" width="4.27734375" customWidth="1"/>
-    <col min="18" max="18" width="3.71875" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" customWidth="1"/>
-    <col min="20" max="20" width="4.27734375" customWidth="1"/>
+    <col min="11" max="11" width="3.73046875" customWidth="1"/>
+    <col min="12" max="12" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.73046875" customWidth="1"/>
+    <col min="14" max="14" width="14.19921875" customWidth="1"/>
+    <col min="15" max="15" width="4.265625" customWidth="1"/>
+    <col min="16" max="16" width="3.73046875" customWidth="1"/>
+    <col min="17" max="17" width="10.796875" customWidth="1"/>
+    <col min="18" max="18" width="4.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="D3" s="18"/>
       <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="6"/>
-      <c r="P3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F6" t="s">
+      <c r="P3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G7" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="4"/>
       <c r="K8" s="2"/>
       <c r="L8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="P8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="6"/>
+      <c r="G13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="L13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="14"/>
+    </row>
+    <row r="14" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K14" s="1"/>
       <c r="L14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="3:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="21" spans="3:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="21" spans="3:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CDEC9E-CE5F-4AD8-83E3-60B934FA3F65}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A5:S24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777C2298-6BD3-4DC1-A4E2-93B4DA726463}">
+  <dimension ref="B5:AJ26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.265625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.71875" customWidth="1"/>
-    <col min="9" max="10" width="4" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" customWidth="1"/>
-    <col min="18" max="18" width="4.44140625" customWidth="1"/>
-    <col min="19" max="19" width="13.71875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="5" spans="2:36" ht="47.25" x14ac:dyDescent="0.35">
+      <c r="K5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="2:36" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:36" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AH9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ9" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="AH10" s="20"/>
+      <c r="AJ10" s="22"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="AH11" s="20"/>
+      <c r="AJ11" s="22"/>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="AH12" s="20"/>
+      <c r="AJ12" s="22"/>
+    </row>
+    <row r="13" spans="2:36" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH13" s="20"/>
+      <c r="AJ13" s="22"/>
+    </row>
+    <row r="14" spans="2:36" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH14" s="20"/>
+      <c r="AJ14" s="22"/>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="AH15" s="20"/>
+      <c r="AJ15" s="22"/>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="AH16" s="20"/>
+      <c r="AJ16" s="22"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="AH17" s="20"/>
+      <c r="AJ17" s="22"/>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="AH18" s="20"/>
+      <c r="AJ18" s="22"/>
+    </row>
+    <row r="19" spans="2:36" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH19" s="21"/>
+      <c r="AJ19" s="22"/>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH21" s="5"/>
+      <c r="AJ21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH22" s="1"/>
+      <c r="AJ22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="2:36" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="R6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="2:36" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="R7" s="5"/>
-      <c r="S7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="6"/>
-      <c r="S8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="R10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="R11" s="2"/>
-      <c r="S11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="R13" s="5"/>
-      <c r="S13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="R15" s="5"/>
-      <c r="S15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17" s="6"/>
-      <c r="S17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I23" s="3"/>
-      <c r="J23" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="151.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>32</v>
+      <c r="C26" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
+  <mergeCells count="3">
+    <mergeCell ref="AH9:AH19"/>
+    <mergeCell ref="AJ9:AJ19"/>
+    <mergeCell ref="K7:L7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B77D6C1-D557-44FE-93E9-815A1C454C53}">
-  <dimension ref="A3:L25"/>
+  <dimension ref="A3:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.796875" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.46484375" customWidth="1"/>
+    <col min="2" max="2" width="4.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
       <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="10" spans="1:17" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O10" s="5"/>
+      <c r="Q10" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J23" s="5"/>
-      <c r="L23" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" t="s">
-        <v>30</v>
+    </row>
+    <row r="11" spans="1:17" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="O11" s="1"/>
+      <c r="Q11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
